--- a/Analytics/D2/TGMXcorners_d2.xlsx
+++ b/Analytics/D2/TGMXcorners_d2.xlsx
@@ -79,21 +79,24 @@
     <t>Kaiserslautern</t>
   </si>
   <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Karlsruhe</t>
+  </si>
+  <si>
     <t>Holstein Kiel</t>
   </si>
   <si>
-    <t>Hamburg</t>
-  </si>
-  <si>
     <t>Hertha</t>
   </si>
   <si>
-    <t>Karlsruhe</t>
-  </si>
-  <si>
     <t>Schalke 04</t>
   </si>
   <si>
+    <t>Paderborn</t>
+  </si>
+  <si>
     <t>Wehen</t>
   </si>
   <si>
@@ -106,9 +109,6 @@
     <t>Greuther Furth</t>
   </si>
   <si>
-    <t>Paderborn</t>
-  </si>
-  <si>
     <t>Elversberg</t>
   </si>
   <si>
@@ -136,7 +136,7 @@
     <t>SUM("TTGMXcorners")</t>
   </si>
   <si>
-    <t>SUM("TTGMXcorners") / 30</t>
+    <t>SUM("TTGMXcorners") / 34</t>
   </si>
 </sst>
 </file>
@@ -215,7 +215,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>30656.0</v>
+        <v>31845.0</v>
       </c>
     </row>
     <row r="4">
@@ -226,7 +226,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>30602.0</v>
+        <v>31237.0</v>
       </c>
     </row>
     <row r="5">
@@ -237,7 +237,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>30404.0</v>
+        <v>30656.0</v>
       </c>
     </row>
     <row r="6">
@@ -248,7 +248,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>30372.0</v>
+        <v>30404.0</v>
       </c>
     </row>
     <row r="7">
@@ -270,7 +270,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>29092.0</v>
+        <v>29581.0</v>
       </c>
     </row>
     <row r="9">
@@ -281,7 +281,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>27774.0</v>
+        <v>29092.0</v>
       </c>
     </row>
     <row r="10">
@@ -292,7 +292,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>27540.0</v>
+        <v>27774.0</v>
       </c>
     </row>
     <row r="11">
@@ -303,7 +303,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>27092.0</v>
+        <v>27540.0</v>
       </c>
     </row>
     <row r="12">
@@ -314,7 +314,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>26329.0</v>
+        <v>27092.0</v>
       </c>
     </row>
     <row r="13">
@@ -421,7 +421,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
         <v>35325.0</v>
@@ -432,7 +432,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
         <v>32995.0</v>
@@ -443,7 +443,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="n">
         <v>32407.0</v>
@@ -465,7 +465,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
         <v>30315.0</v>
@@ -476,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>27312.0</v>
+        <v>29749.0</v>
       </c>
     </row>
     <row r="8">
@@ -487,10 +487,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>27020.0</v>
+        <v>27312.0</v>
       </c>
     </row>
     <row r="9">
@@ -498,10 +498,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
-        <v>26864.0</v>
+        <v>27020.0</v>
       </c>
     </row>
     <row r="10">
@@ -509,10 +509,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>26799.0</v>
+        <v>26864.0</v>
       </c>
     </row>
     <row r="11">
@@ -520,10 +520,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>26627.0</v>
+        <v>26799.0</v>
       </c>
     </row>
     <row r="12">
@@ -531,10 +531,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C12" t="n">
-        <v>26497.0</v>
+        <v>26627.0</v>
       </c>
     </row>
     <row r="13">
@@ -542,10 +542,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
-        <v>25336.0</v>
+        <v>25374.0</v>
       </c>
     </row>
     <row r="14">
@@ -553,10 +553,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>24979.0</v>
+        <v>25336.0</v>
       </c>
     </row>
     <row r="15">
@@ -564,10 +564,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C15" t="n">
-        <v>24603.0</v>
+        <v>25040.0</v>
       </c>
     </row>
     <row r="16">
@@ -575,10 +575,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C16" t="n">
-        <v>24509.0</v>
+        <v>24979.0</v>
       </c>
     </row>
     <row r="17">
@@ -586,10 +586,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C17" t="n">
-        <v>23797.0</v>
+        <v>24603.0</v>
       </c>
     </row>
     <row r="18">
@@ -650,7 +650,7 @@
         <v>63879.0</v>
       </c>
       <c r="D2" t="n">
-        <v>2129.3</v>
+        <v>1878.7941176470588</v>
       </c>
     </row>
     <row r="3">
@@ -658,13 +658,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
         <v>63399.0</v>
       </c>
       <c r="D3" t="n">
-        <v>2113.3</v>
+        <v>1864.6764705882354</v>
       </c>
     </row>
     <row r="4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
         <v>63099.0</v>
       </c>
       <c r="D4" t="n">
-        <v>2103.3</v>
+        <v>1855.8529411764705</v>
       </c>
     </row>
     <row r="5">
@@ -686,13 +686,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>60917.0</v>
+        <v>62160.0</v>
       </c>
       <c r="D5" t="n">
-        <v>2030.5666666666666</v>
+        <v>1828.235294117647</v>
       </c>
     </row>
     <row r="6">
@@ -700,13 +700,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="n">
         <v>59947.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1998.2333333333333</v>
+        <v>1763.1470588235295</v>
       </c>
     </row>
     <row r="7">
@@ -714,13 +714,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>57676.0</v>
+        <v>59416.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1922.5333333333333</v>
+        <v>1747.5294117647059</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
-        <v>56896.0</v>
+        <v>57676.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1896.5333333333333</v>
+        <v>1696.3529411764705</v>
       </c>
     </row>
     <row r="9">
@@ -742,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>56164.0</v>
+        <v>56896.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1872.1333333333334</v>
+        <v>1673.4117647058824</v>
       </c>
     </row>
     <row r="10">
@@ -756,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>55891.0</v>
+        <v>56216.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1863.0333333333333</v>
+        <v>1653.4117647058824</v>
       </c>
     </row>
     <row r="11">
@@ -770,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>55351.0</v>
+        <v>55891.0</v>
       </c>
       <c r="D11" t="n">
-        <v>1845.0333333333333</v>
+        <v>1643.8529411764705</v>
       </c>
     </row>
     <row r="12">
@@ -784,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C12" t="n">
-        <v>53956.0</v>
+        <v>54955.0</v>
       </c>
       <c r="D12" t="n">
-        <v>1798.5333333333333</v>
+        <v>1616.3235294117646</v>
       </c>
     </row>
     <row r="13">
@@ -798,13 +798,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>51518.0</v>
+        <v>53956.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1717.2666666666667</v>
+        <v>1586.9411764705883</v>
       </c>
     </row>
     <row r="14">
@@ -812,13 +812,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>50838.0</v>
+        <v>51518.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1694.6</v>
+        <v>1515.235294117647</v>
       </c>
     </row>
     <row r="15">
@@ -832,7 +832,7 @@
         <v>49890.0</v>
       </c>
       <c r="D15" t="n">
-        <v>1663.0</v>
+        <v>1467.3529411764705</v>
       </c>
     </row>
     <row r="16">
@@ -846,7 +846,7 @@
         <v>49567.0</v>
       </c>
       <c r="D16" t="n">
-        <v>1652.2333333333333</v>
+        <v>1457.8529411764705</v>
       </c>
     </row>
     <row r="17">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>44231.0</v>
+        <v>45474.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1474.3666666666666</v>
+        <v>1337.4705882352941</v>
       </c>
     </row>
     <row r="18">
@@ -874,7 +874,7 @@
         <v>43687.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1456.2333333333333</v>
+        <v>1284.9117647058824</v>
       </c>
     </row>
     <row r="19">
@@ -888,7 +888,7 @@
         <v>42326.0</v>
       </c>
       <c r="D19" t="n">
-        <v>1410.8666666666666</v>
+        <v>1244.8823529411766</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/D2/TGMXcorners_d2.xlsx
+++ b/Analytics/D2/TGMXcorners_d2.xlsx
@@ -79,52 +79,52 @@
     <t>Kaiserslautern</t>
   </si>
   <si>
+    <t>Elversberg</t>
+  </si>
+  <si>
     <t>Hamburg</t>
   </si>
   <si>
+    <t>Ulm</t>
+  </si>
+  <si>
+    <t>Nurnberg</t>
+  </si>
+  <si>
+    <t>FC Koln</t>
+  </si>
+  <si>
+    <t>Schalke 04</t>
+  </si>
+  <si>
     <t>Karlsruhe</t>
   </si>
   <si>
-    <t>Holstein Kiel</t>
-  </si>
-  <si>
     <t>Hertha</t>
   </si>
   <si>
-    <t>Schalke 04</t>
+    <t>PreuÃŸen MÃ¼nster</t>
+  </si>
+  <si>
+    <t>Fortuna Dusseldorf</t>
+  </si>
+  <si>
+    <t>Darmstadt</t>
+  </si>
+  <si>
+    <t>Hannover</t>
+  </si>
+  <si>
+    <t>Regensburg</t>
+  </si>
+  <si>
+    <t>Greuther Furth</t>
+  </si>
+  <si>
+    <t>Magdeburg</t>
   </si>
   <si>
     <t>Paderborn</t>
-  </si>
-  <si>
-    <t>Wehen</t>
-  </si>
-  <si>
-    <t>Nurnberg</t>
-  </si>
-  <si>
-    <t>Osnabruck</t>
-  </si>
-  <si>
-    <t>Greuther Furth</t>
-  </si>
-  <si>
-    <t>Elversberg</t>
-  </si>
-  <si>
-    <t>Hannover</t>
-  </si>
-  <si>
-    <t>Fortuna Dusseldorf</t>
-  </si>
-  <si>
-    <t>Magdeburg</t>
-  </si>
-  <si>
-    <t>Hansa Rostock</t>
-  </si>
-  <si>
-    <t>St Pauli</t>
   </si>
   <si>
     <t>Braunschweig</t>
@@ -204,7 +204,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>36567.0</v>
+        <v>15806.0</v>
       </c>
     </row>
     <row r="3">
@@ -215,7 +215,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>31845.0</v>
+        <v>14581.0</v>
       </c>
     </row>
     <row r="4">
@@ -226,7 +226,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>31237.0</v>
+        <v>13031.0</v>
       </c>
     </row>
     <row r="5">
@@ -237,7 +237,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>30656.0</v>
+        <v>11640.0</v>
       </c>
     </row>
     <row r="6">
@@ -248,7 +248,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>30404.0</v>
+        <v>11393.0</v>
       </c>
     </row>
     <row r="7">
@@ -259,7 +259,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>29667.0</v>
+        <v>11186.0</v>
       </c>
     </row>
     <row r="8">
@@ -270,7 +270,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>29581.0</v>
+        <v>11170.0</v>
       </c>
     </row>
     <row r="9">
@@ -281,7 +281,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>29092.0</v>
+        <v>9733.0</v>
       </c>
     </row>
     <row r="10">
@@ -292,7 +292,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>27774.0</v>
+        <v>9405.0</v>
       </c>
     </row>
     <row r="11">
@@ -303,7 +303,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>27540.0</v>
+        <v>8786.0</v>
       </c>
     </row>
     <row r="12">
@@ -314,7 +314,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>27092.0</v>
+        <v>8006.0</v>
       </c>
     </row>
     <row r="13">
@@ -325,7 +325,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>26182.0</v>
+        <v>7640.0</v>
       </c>
     </row>
     <row r="14">
@@ -336,7 +336,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>25287.0</v>
+        <v>7443.0</v>
       </c>
     </row>
     <row r="15">
@@ -347,7 +347,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>25017.0</v>
+        <v>7272.0</v>
       </c>
     </row>
     <row r="16">
@@ -358,7 +358,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>22940.0</v>
+        <v>7177.0</v>
       </c>
     </row>
     <row r="17">
@@ -369,7 +369,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>22027.0</v>
+        <v>6580.0</v>
       </c>
     </row>
     <row r="18">
@@ -380,7 +380,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>21634.0</v>
+        <v>6467.0</v>
       </c>
     </row>
     <row r="19">
@@ -391,7 +391,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>20434.0</v>
+        <v>6151.0</v>
       </c>
     </row>
   </sheetData>
@@ -421,10 +421,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C2" t="n">
-        <v>35325.0</v>
+        <v>13984.0</v>
       </c>
     </row>
     <row r="3">
@@ -432,10 +432,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>32995.0</v>
+        <v>12802.0</v>
       </c>
     </row>
     <row r="4">
@@ -443,10 +443,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C4" t="n">
-        <v>32407.0</v>
+        <v>12060.0</v>
       </c>
     </row>
     <row r="5">
@@ -454,10 +454,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" t="n">
-        <v>31879.0</v>
+        <v>12048.0</v>
       </c>
     </row>
     <row r="6">
@@ -465,10 +465,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
-        <v>30315.0</v>
+        <v>11673.0</v>
       </c>
     </row>
     <row r="7">
@@ -479,7 +479,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>29749.0</v>
+        <v>10689.0</v>
       </c>
     </row>
     <row r="8">
@@ -487,10 +487,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C8" t="n">
-        <v>27312.0</v>
+        <v>10530.0</v>
       </c>
     </row>
     <row r="9">
@@ -498,10 +498,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="n">
-        <v>27020.0</v>
+        <v>10157.0</v>
       </c>
     </row>
     <row r="10">
@@ -509,10 +509,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>26864.0</v>
+        <v>9735.0</v>
       </c>
     </row>
     <row r="11">
@@ -520,10 +520,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>26799.0</v>
+        <v>9575.0</v>
       </c>
     </row>
     <row r="12">
@@ -531,10 +531,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C12" t="n">
-        <v>26627.0</v>
+        <v>9197.0</v>
       </c>
     </row>
     <row r="13">
@@ -542,10 +542,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>25374.0</v>
+        <v>9143.0</v>
       </c>
     </row>
     <row r="14">
@@ -553,10 +553,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>25336.0</v>
+        <v>9060.0</v>
       </c>
     </row>
     <row r="15">
@@ -564,10 +564,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C15" t="n">
-        <v>25040.0</v>
+        <v>8450.0</v>
       </c>
     </row>
     <row r="16">
@@ -575,10 +575,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="n">
-        <v>24979.0</v>
+        <v>7380.0</v>
       </c>
     </row>
     <row r="17">
@@ -586,10 +586,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C17" t="n">
-        <v>24603.0</v>
+        <v>7019.0</v>
       </c>
     </row>
     <row r="18">
@@ -597,10 +597,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C18" t="n">
-        <v>22053.0</v>
+        <v>4991.0</v>
       </c>
     </row>
     <row r="19">
@@ -608,10 +608,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>20299.0</v>
+        <v>4974.0</v>
       </c>
     </row>
   </sheetData>
@@ -647,10 +647,10 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>63879.0</v>
+        <v>25381.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1878.7941176470588</v>
+        <v>746.5</v>
       </c>
     </row>
     <row r="3">
@@ -658,13 +658,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>63399.0</v>
+        <v>22766.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1864.6764705882354</v>
+        <v>669.5882352941177</v>
       </c>
     </row>
     <row r="4">
@@ -675,10 +675,10 @@
         <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>63099.0</v>
+        <v>22207.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1855.8529411764705</v>
+        <v>653.1470588235294</v>
       </c>
     </row>
     <row r="5">
@@ -689,10 +689,10 @@
         <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>62160.0</v>
+        <v>21961.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1828.235294117647</v>
+        <v>645.9117647058823</v>
       </c>
     </row>
     <row r="6">
@@ -700,13 +700,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>59947.0</v>
+        <v>21875.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1763.1470588235295</v>
+        <v>643.3823529411765</v>
       </c>
     </row>
     <row r="7">
@@ -714,13 +714,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
-        <v>59416.0</v>
+        <v>21550.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1747.5294117647059</v>
+        <v>633.8235294117648</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C8" t="n">
-        <v>57676.0</v>
+        <v>20451.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1696.3529411764705</v>
+        <v>601.5</v>
       </c>
     </row>
     <row r="9">
@@ -742,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" t="n">
-        <v>56896.0</v>
+        <v>19688.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1673.4117647058824</v>
+        <v>579.0588235294117</v>
       </c>
     </row>
     <row r="10">
@@ -756,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C10" t="n">
-        <v>56216.0</v>
+        <v>18850.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1653.4117647058824</v>
+        <v>554.4117647058823</v>
       </c>
     </row>
     <row r="11">
@@ -770,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C11" t="n">
-        <v>55891.0</v>
+        <v>18640.0</v>
       </c>
       <c r="D11" t="n">
-        <v>1643.8529411764705</v>
+        <v>548.2352941176471</v>
       </c>
     </row>
     <row r="12">
@@ -787,10 +787,10 @@
         <v>26</v>
       </c>
       <c r="C12" t="n">
-        <v>54955.0</v>
+        <v>18189.0</v>
       </c>
       <c r="D12" t="n">
-        <v>1616.3235294117646</v>
+        <v>534.9705882352941</v>
       </c>
     </row>
     <row r="13">
@@ -798,13 +798,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C13" t="n">
-        <v>53956.0</v>
+        <v>18183.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1586.9411764705883</v>
+        <v>534.7941176470588</v>
       </c>
     </row>
     <row r="14">
@@ -812,13 +812,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" t="n">
-        <v>51518.0</v>
+        <v>17983.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1515.235294117647</v>
+        <v>528.9117647058823</v>
       </c>
     </row>
     <row r="15">
@@ -826,13 +826,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
-        <v>49890.0</v>
+        <v>17066.0</v>
       </c>
       <c r="D15" t="n">
-        <v>1467.3529411764705</v>
+        <v>501.94117647058823</v>
       </c>
     </row>
     <row r="16">
@@ -840,13 +840,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C16" t="n">
-        <v>49567.0</v>
+        <v>16681.0</v>
       </c>
       <c r="D16" t="n">
-        <v>1457.8529411764705</v>
+        <v>490.61764705882354</v>
       </c>
     </row>
     <row r="17">
@@ -854,13 +854,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C17" t="n">
-        <v>45474.0</v>
+        <v>16614.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1337.4705882352941</v>
+        <v>488.6470588235294</v>
       </c>
     </row>
     <row r="18">
@@ -868,13 +868,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C18" t="n">
-        <v>43687.0</v>
+        <v>16415.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1284.9117647058824</v>
+        <v>482.79411764705884</v>
       </c>
     </row>
     <row r="19">
@@ -882,13 +882,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C19" t="n">
-        <v>42326.0</v>
+        <v>12434.0</v>
       </c>
       <c r="D19" t="n">
-        <v>1244.8823529411766</v>
+        <v>365.70588235294116</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/D2/TGMXcorners_d2.xlsx
+++ b/Analytics/D2/TGMXcorners_d2.xlsx
@@ -76,28 +76,31 @@
     <t>18</t>
   </si>
   <si>
+    <t>Elversberg</t>
+  </si>
+  <si>
     <t>Kaiserslautern</t>
   </si>
   <si>
-    <t>Elversberg</t>
-  </si>
-  <si>
     <t>Hamburg</t>
   </si>
   <si>
+    <t>FC Koln</t>
+  </si>
+  <si>
+    <t>Schalke 04</t>
+  </si>
+  <si>
+    <t>Karlsruhe</t>
+  </si>
+  <si>
     <t>Ulm</t>
   </si>
   <si>
     <t>Nurnberg</t>
   </si>
   <si>
-    <t>FC Koln</t>
-  </si>
-  <si>
-    <t>Schalke 04</t>
-  </si>
-  <si>
-    <t>Karlsruhe</t>
+    <t>Darmstadt</t>
   </si>
   <si>
     <t>Hertha</t>
@@ -106,12 +109,12 @@
     <t>PreuÃŸen MÃ¼nster</t>
   </si>
   <si>
+    <t>Braunschweig</t>
+  </si>
+  <si>
     <t>Fortuna Dusseldorf</t>
   </si>
   <si>
-    <t>Darmstadt</t>
-  </si>
-  <si>
     <t>Hannover</t>
   </si>
   <si>
@@ -125,9 +128,6 @@
   </si>
   <si>
     <t>Paderborn</t>
-  </si>
-  <si>
-    <t>Braunschweig</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -204,7 +204,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>15806.0</v>
+        <v>17964.0</v>
       </c>
     </row>
     <row r="3">
@@ -215,7 +215,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>14581.0</v>
+        <v>15806.0</v>
       </c>
     </row>
     <row r="4">
@@ -237,7 +237,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>11640.0</v>
+        <v>12502.0</v>
       </c>
     </row>
     <row r="6">
@@ -248,7 +248,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>11393.0</v>
+        <v>11722.0</v>
       </c>
     </row>
     <row r="7">
@@ -259,7 +259,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>11186.0</v>
+        <v>11668.0</v>
       </c>
     </row>
     <row r="8">
@@ -270,7 +270,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>11170.0</v>
+        <v>11640.0</v>
       </c>
     </row>
     <row r="9">
@@ -281,7 +281,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>9733.0</v>
+        <v>11393.0</v>
       </c>
     </row>
     <row r="10">
@@ -292,7 +292,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>9405.0</v>
+        <v>9770.0</v>
       </c>
     </row>
     <row r="11">
@@ -303,7 +303,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>8786.0</v>
+        <v>9405.0</v>
       </c>
     </row>
     <row r="12">
@@ -314,7 +314,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>8006.0</v>
+        <v>8786.0</v>
       </c>
     </row>
     <row r="13">
@@ -325,7 +325,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>7640.0</v>
+        <v>8621.0</v>
       </c>
     </row>
     <row r="14">
@@ -336,7 +336,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>7443.0</v>
+        <v>8006.0</v>
       </c>
     </row>
     <row r="15">
@@ -347,7 +347,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>7272.0</v>
+        <v>7443.0</v>
       </c>
     </row>
     <row r="16">
@@ -358,7 +358,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>7177.0</v>
+        <v>7272.0</v>
       </c>
     </row>
     <row r="17">
@@ -369,7 +369,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>6580.0</v>
+        <v>7177.0</v>
       </c>
     </row>
     <row r="18">
@@ -380,7 +380,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>6467.0</v>
+        <v>6580.0</v>
       </c>
     </row>
     <row r="19">
@@ -391,7 +391,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>6151.0</v>
+        <v>6467.0</v>
       </c>
     </row>
   </sheetData>
@@ -421,10 +421,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
-        <v>13984.0</v>
+        <v>14932.0</v>
       </c>
     </row>
     <row r="3">
@@ -432,10 +432,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C3" t="n">
-        <v>12802.0</v>
+        <v>13984.0</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>35</v>
       </c>
       <c r="C4" t="n">
-        <v>12060.0</v>
+        <v>12989.0</v>
       </c>
     </row>
     <row r="5">
@@ -454,10 +454,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>12048.0</v>
+        <v>12205.0</v>
       </c>
     </row>
     <row r="6">
@@ -465,10 +465,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" t="n">
-        <v>11673.0</v>
+        <v>12060.0</v>
       </c>
     </row>
     <row r="7">
@@ -476,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C7" t="n">
-        <v>10689.0</v>
+        <v>12048.0</v>
       </c>
     </row>
     <row r="8">
@@ -487,10 +487,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>10530.0</v>
+        <v>11132.0</v>
       </c>
     </row>
     <row r="9">
@@ -498,10 +498,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
-        <v>10157.0</v>
+        <v>10689.0</v>
       </c>
     </row>
     <row r="10">
@@ -509,10 +509,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C10" t="n">
-        <v>9735.0</v>
+        <v>10530.0</v>
       </c>
     </row>
     <row r="11">
@@ -520,10 +520,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>9575.0</v>
+        <v>10157.0</v>
       </c>
     </row>
     <row r="12">
@@ -531,10 +531,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C12" t="n">
-        <v>9197.0</v>
+        <v>9695.0</v>
       </c>
     </row>
     <row r="13">
@@ -542,10 +542,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C13" t="n">
-        <v>9143.0</v>
+        <v>9575.0</v>
       </c>
     </row>
     <row r="14">
@@ -553,7 +553,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" t="n">
         <v>9060.0</v>
@@ -564,7 +564,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" t="n">
         <v>8450.0</v>
@@ -575,10 +575,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C16" t="n">
-        <v>7380.0</v>
+        <v>8374.0</v>
       </c>
     </row>
     <row r="17">
@@ -586,10 +586,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C17" t="n">
-        <v>7019.0</v>
+        <v>7380.0</v>
       </c>
     </row>
     <row r="18">
@@ -597,10 +597,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C18" t="n">
-        <v>4991.0</v>
+        <v>7019.0</v>
       </c>
     </row>
     <row r="19">
@@ -608,7 +608,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C19" t="n">
         <v>4974.0</v>
@@ -644,7 +644,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="n">
         <v>25381.0</v>
@@ -658,13 +658,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>22766.0</v>
+        <v>25344.0</v>
       </c>
       <c r="D3" t="n">
-        <v>669.5882352941177</v>
+        <v>745.4117647058823</v>
       </c>
     </row>
     <row r="4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>22207.0</v>
+        <v>25236.0</v>
       </c>
       <c r="D4" t="n">
-        <v>653.1470588235294</v>
+        <v>742.2352941176471</v>
       </c>
     </row>
     <row r="5">
@@ -686,13 +686,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>21961.0</v>
+        <v>24337.0</v>
       </c>
       <c r="D5" t="n">
-        <v>645.9117647058823</v>
+        <v>715.7941176470588</v>
       </c>
     </row>
     <row r="6">
@@ -700,13 +700,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
-        <v>21875.0</v>
+        <v>23191.0</v>
       </c>
       <c r="D6" t="n">
-        <v>643.3823529411765</v>
+        <v>682.0882352941177</v>
       </c>
     </row>
     <row r="7">
@@ -714,13 +714,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C7" t="n">
-        <v>21550.0</v>
+        <v>21818.0</v>
       </c>
       <c r="D7" t="n">
-        <v>633.8235294117648</v>
+        <v>641.7058823529412</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
-        <v>20451.0</v>
+        <v>21550.0</v>
       </c>
       <c r="D8" t="n">
-        <v>601.5</v>
+        <v>633.8235294117648</v>
       </c>
     </row>
     <row r="9">
@@ -742,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C9" t="n">
-        <v>19688.0</v>
+        <v>20451.0</v>
       </c>
       <c r="D9" t="n">
-        <v>579.0588235294117</v>
+        <v>601.5</v>
       </c>
     </row>
     <row r="10">
@@ -756,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" t="n">
-        <v>18850.0</v>
+        <v>20166.0</v>
       </c>
       <c r="D10" t="n">
-        <v>554.4117647058823</v>
+        <v>593.1176470588235</v>
       </c>
     </row>
     <row r="11">
@@ -770,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>18640.0</v>
+        <v>20118.0</v>
       </c>
       <c r="D11" t="n">
-        <v>548.2352941176471</v>
+        <v>591.7058823529412</v>
       </c>
     </row>
     <row r="12">
@@ -784,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>18189.0</v>
+        <v>19918.0</v>
       </c>
       <c r="D12" t="n">
-        <v>534.9705882352941</v>
+        <v>585.8235294117648</v>
       </c>
     </row>
     <row r="13">
@@ -798,13 +798,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>18183.0</v>
+        <v>19151.0</v>
       </c>
       <c r="D13" t="n">
-        <v>534.7941176470588</v>
+        <v>563.2647058823529</v>
       </c>
     </row>
     <row r="14">
@@ -812,13 +812,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C14" t="n">
-        <v>17983.0</v>
+        <v>18741.0</v>
       </c>
       <c r="D14" t="n">
-        <v>528.9117647058823</v>
+        <v>551.2058823529412</v>
       </c>
     </row>
     <row r="15">
@@ -826,13 +826,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>17066.0</v>
+        <v>18640.0</v>
       </c>
       <c r="D15" t="n">
-        <v>501.94117647058823</v>
+        <v>548.2352941176471</v>
       </c>
     </row>
     <row r="16">
@@ -840,13 +840,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
-        <v>16681.0</v>
+        <v>17066.0</v>
       </c>
       <c r="D16" t="n">
-        <v>490.61764705882354</v>
+        <v>501.94117647058823</v>
       </c>
     </row>
     <row r="17">
@@ -854,13 +854,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C17" t="n">
-        <v>16614.0</v>
+        <v>16967.0</v>
       </c>
       <c r="D17" t="n">
-        <v>488.6470588235294</v>
+        <v>499.02941176470586</v>
       </c>
     </row>
     <row r="18">
@@ -868,13 +868,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C18" t="n">
-        <v>16415.0</v>
+        <v>16614.0</v>
       </c>
       <c r="D18" t="n">
-        <v>482.79411764705884</v>
+        <v>488.6470588235294</v>
       </c>
     </row>
     <row r="19">
@@ -882,13 +882,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" t="n">
-        <v>12434.0</v>
+        <v>15817.0</v>
       </c>
       <c r="D19" t="n">
-        <v>365.70588235294116</v>
+        <v>465.20588235294116</v>
       </c>
     </row>
   </sheetData>
